--- a/database/industries/zeraat/simorgh/income/quarterly/dollar.xlsx
+++ b/database/industries/zeraat/simorgh/income/quarterly/dollar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D4E2F5-8AD7-46BB-AC46-7CB272A44BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF7C59-F2B3-4871-A18D-648972A03D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/zeraat/simorgh/income/quarterly/dollar.xlsx
+++ b/database/industries/zeraat/simorgh/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD4251-8F05-4629-B778-04752E1B820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257EC7A-7926-4A7A-8320-2A668F01B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-21 (5)</t>
-  </si>
-  <si>
-    <t>1401-08-21 (10)</t>
+    <t>1400-07-28 (2)</t>
+  </si>
+  <si>
+    <t>1400-12-25 (11)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-06-13 (4)</t>
+  </si>
+  <si>
+    <t>1401-12-07 (7)</t>
+  </si>
+  <si>
+    <t>1401-12-08 (13)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -67,7 +94,10 @@
     <t>1401-06-13 (2)</t>
   </si>
   <si>
-    <t>1401-08-21 (4)</t>
+    <t>1401-12-07 (6)</t>
+  </si>
+  <si>
+    <t>1401-12-08</t>
   </si>
   <si>
     <t>ارزش منصفانه تولیدات کشاورزی</t>
@@ -618,20 +648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -639,8 +672,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,8 +688,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -661,8 +704,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -670,8 +718,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -681,8 +734,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -692,8 +750,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -701,8 +764,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -722,29 +790,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -752,430 +850,735 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="D11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="13">
+        <v>22276</v>
+      </c>
+      <c r="H11" s="13">
         <v>-19911</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="I11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="13">
         <v>27109</v>
       </c>
-      <c r="H11" s="13">
+      <c r="L11" s="13">
         <v>18598</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M11" s="13">
+        <v>18645</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="13">
+        <v>23119</v>
+      </c>
+      <c r="H13" s="13">
         <v>16821</v>
       </c>
-      <c r="E13" s="13">
+      <c r="I13" s="13">
         <v>17066</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="J13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="13">
         <v>28532</v>
       </c>
-      <c r="H13" s="13">
+      <c r="L13" s="13">
         <v>18396</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="13">
+        <v>19370</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11">
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-22305</v>
+      </c>
+      <c r="H14" s="11">
         <v>19937</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="I14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="11">
         <v>-27711</v>
       </c>
-      <c r="H14" s="11">
+      <c r="L14" s="11">
         <v>-17967</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="11">
+        <v>-18562</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
+        <v>8056</v>
+      </c>
+      <c r="E15" s="15">
+        <v>8955</v>
+      </c>
+      <c r="F15" s="15">
+        <v>10745</v>
+      </c>
+      <c r="G15" s="15">
+        <v>11840</v>
+      </c>
+      <c r="H15" s="15">
         <v>16848</v>
       </c>
-      <c r="E15" s="15">
+      <c r="I15" s="15">
         <v>17066</v>
       </c>
-      <c r="F15" s="15">
+      <c r="J15" s="15">
         <v>15322</v>
       </c>
-      <c r="G15" s="15">
+      <c r="K15" s="15">
         <v>13567</v>
       </c>
-      <c r="H15" s="15">
+      <c r="L15" s="15">
         <v>19028</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M15" s="15">
+        <v>19452</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11">
+      <c r="D16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-15942</v>
+      </c>
+      <c r="H16" s="11">
         <v>-10148</v>
       </c>
-      <c r="E16" s="11">
+      <c r="I16" s="11">
         <v>-9837</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="J16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="11">
         <v>-18839</v>
       </c>
-      <c r="H16" s="11">
+      <c r="L16" s="11">
         <v>-14595</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="11">
+        <v>-15407</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
+        <v>-599</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-811</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-609</v>
+      </c>
+      <c r="G17" s="13">
+        <v>-761</v>
+      </c>
+      <c r="H17" s="13">
         <v>-720</v>
       </c>
-      <c r="E17" s="13">
+      <c r="I17" s="13">
         <v>-924</v>
       </c>
-      <c r="F17" s="13">
+      <c r="J17" s="13">
         <v>-847</v>
       </c>
-      <c r="G17" s="13">
+      <c r="K17" s="13">
         <v>-1095</v>
       </c>
-      <c r="H17" s="13">
+      <c r="L17" s="13">
         <v>-877</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M17" s="13">
+        <v>-895</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
-        <v>17</v>
+      <c r="D18" s="11">
+        <v>-42</v>
       </c>
       <c r="E18" s="11">
+        <v>198</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="11">
+        <v>51</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="11">
         <v>391</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="J18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="11">
         <v>44</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-53</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-21</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-31</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-74</v>
+      </c>
+      <c r="H19" s="13">
         <v>-97</v>
       </c>
-      <c r="E19" s="13">
+      <c r="I19" s="13">
         <v>-105</v>
       </c>
-      <c r="F19" s="13">
+      <c r="J19" s="13">
         <v>-51</v>
       </c>
-      <c r="G19" s="13">
+      <c r="K19" s="13">
         <v>-72</v>
       </c>
-      <c r="H19" s="13">
+      <c r="L19" s="13">
         <v>-63</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="13">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>1229</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2893</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3336</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2203</v>
+      </c>
+      <c r="H20" s="17">
         <v>5883</v>
       </c>
-      <c r="E20" s="17">
+      <c r="I20" s="17">
         <v>6590</v>
       </c>
-      <c r="F20" s="17">
+      <c r="J20" s="17">
         <v>4765</v>
       </c>
-      <c r="G20" s="17">
+      <c r="K20" s="17">
         <v>2660</v>
       </c>
-      <c r="H20" s="17">
+      <c r="L20" s="17">
         <v>3494</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="17">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13">
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="13">
+        <v>366</v>
+      </c>
+      <c r="H21" s="13">
         <v>66</v>
       </c>
-      <c r="E21" s="13">
+      <c r="I21" s="13">
         <v>76</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="J21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="13">
         <v>340</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="13">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="13">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
+        <v>47</v>
+      </c>
+      <c r="E22" s="11">
+        <v>66</v>
+      </c>
+      <c r="F22" s="11">
+        <v>43</v>
+      </c>
+      <c r="G22" s="11">
+        <v>96</v>
+      </c>
+      <c r="H22" s="11">
         <v>49</v>
       </c>
-      <c r="E22" s="11">
+      <c r="I22" s="11">
         <v>202</v>
       </c>
-      <c r="F22" s="11">
+      <c r="J22" s="11">
         <v>457</v>
       </c>
-      <c r="G22" s="11">
+      <c r="K22" s="11">
         <v>420</v>
       </c>
-      <c r="H22" s="11">
+      <c r="L22" s="11">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="11">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="E24" s="11">
+        <v>-76</v>
+      </c>
+      <c r="F24" s="11">
+        <v>-16</v>
+      </c>
+      <c r="G24" s="11">
+        <v>-68</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
         <v>-3</v>
       </c>
-      <c r="F24" s="11">
+      <c r="J24" s="11">
         <v>-2</v>
       </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15">
+        <v>1177</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2985</v>
+      </c>
+      <c r="F25" s="15">
+        <v>3519</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2432</v>
+      </c>
+      <c r="H25" s="15">
         <v>5997</v>
       </c>
-      <c r="E25" s="15">
+      <c r="I25" s="15">
         <v>6865</v>
       </c>
-      <c r="F25" s="15">
+      <c r="J25" s="15">
         <v>5364</v>
       </c>
-      <c r="G25" s="15">
+      <c r="K25" s="15">
         <v>3285</v>
       </c>
-      <c r="H25" s="15">
+      <c r="L25" s="15">
         <v>3812</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="15">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>-11</v>
+      </c>
+      <c r="E26" s="11">
+        <v>-13</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="11">
+        <v>-31</v>
+      </c>
+      <c r="H26" s="11">
         <v>-21</v>
       </c>
-      <c r="E26" s="11">
+      <c r="I26" s="11">
         <v>1</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="J26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="11">
         <v>-40</v>
       </c>
-      <c r="H26" s="11">
+      <c r="L26" s="11">
         <v>-40</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="11">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13">
+      <c r="D27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="13">
+        <v>-11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="13">
+        <v>-4</v>
+      </c>
+      <c r="H27" s="13">
         <v>4</v>
       </c>
-      <c r="E27" s="13">
+      <c r="I27" s="13">
         <v>-15</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="J27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="13">
         <v>-33</v>
       </c>
-      <c r="H27" s="13">
+      <c r="L27" s="13">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M27" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17">
+        <v>1166</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2962</v>
+      </c>
+      <c r="F28" s="17">
+        <v>3519</v>
+      </c>
+      <c r="G28" s="17">
+        <v>2396</v>
+      </c>
+      <c r="H28" s="17">
         <v>5980</v>
       </c>
-      <c r="E28" s="17">
+      <c r="I28" s="17">
         <v>6851</v>
       </c>
-      <c r="F28" s="17">
+      <c r="J28" s="17">
         <v>5364</v>
       </c>
-      <c r="G28" s="17">
+      <c r="K28" s="17">
         <v>3213</v>
       </c>
-      <c r="H28" s="17">
+      <c r="L28" s="17">
         <v>3803</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M28" s="17">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17">
+        <v>1166</v>
+      </c>
+      <c r="E30" s="17">
+        <v>2962</v>
+      </c>
+      <c r="F30" s="17">
+        <v>3519</v>
+      </c>
+      <c r="G30" s="17">
+        <v>2396</v>
+      </c>
+      <c r="H30" s="17">
         <v>5980</v>
       </c>
-      <c r="E30" s="17">
+      <c r="I30" s="17">
         <v>6851</v>
       </c>
-      <c r="F30" s="17">
+      <c r="J30" s="17">
         <v>5364</v>
       </c>
-      <c r="G30" s="17">
+      <c r="K30" s="17">
         <v>3213</v>
       </c>
-      <c r="H30" s="17">
+      <c r="L30" s="17">
         <v>3803</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M30" s="17">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13">
@@ -1193,10 +1596,25 @@
       <c r="H31" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
@@ -1214,10 +1632,25 @@
       <c r="H32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
@@ -1235,17 +1668,32 @@
       <c r="H33" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>17</v>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -1254,54 +1702,99 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>17</v>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>17</v>
+      <c r="D36" s="11">
+        <v>5895</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4784</v>
       </c>
       <c r="F36" s="11">
+        <v>5323</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="11">
         <v>4720</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1319,8 +1812,23 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1328,6 +1836,11 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/zeraat/simorgh/income/quarterly/dollar.xlsx
+++ b/database/industries/zeraat/simorgh/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257EC7A-7926-4A7A-8320-2A668F01B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE5ECA-77FD-422A-BEA6-878BA6C6C6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-28 (2)</t>
-  </si>
-  <si>
     <t>1400-12-25 (11)</t>
   </si>
   <si>
@@ -82,22 +79,25 @@
     <t>1401-06-13 (4)</t>
   </si>
   <si>
-    <t>1401-12-07 (7)</t>
-  </si>
-  <si>
-    <t>1401-12-08 (13)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1401-12-03 (6)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (14)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (2)</t>
   </si>
   <si>
     <t>1401-06-13 (2)</t>
   </si>
   <si>
-    <t>1401-12-07 (6)</t>
-  </si>
-  <si>
-    <t>1401-12-08</t>
+    <t>1401-12-03 (5)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (4)</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>ارزش منصفانه تولیدات کشاورزی</t>
@@ -652,19 +652,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,7 +678,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -724,7 +724,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,7 +770,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -806,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -856,7 +856,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -867,32 +867,32 @@
       <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
+      <c r="F11" s="13">
+        <v>22276</v>
       </c>
       <c r="G11" s="13">
-        <v>22276</v>
-      </c>
-      <c r="H11" s="13">
         <v>-19911</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>27</v>
+      <c r="H11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="13">
+        <v>14966</v>
+      </c>
+      <c r="J11" s="13">
+        <v>27109</v>
       </c>
       <c r="K11" s="13">
-        <v>27109</v>
+        <v>18598</v>
       </c>
       <c r="L11" s="13">
-        <v>18598</v>
+        <v>18645</v>
       </c>
       <c r="M11" s="13">
-        <v>18645</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
@@ -928,7 +928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
@@ -939,32 +939,32 @@
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>27</v>
+      <c r="F13" s="13">
+        <v>23119</v>
       </c>
       <c r="G13" s="13">
-        <v>23119</v>
+        <v>16821</v>
       </c>
       <c r="H13" s="13">
-        <v>16821</v>
+        <v>17066</v>
       </c>
       <c r="I13" s="13">
-        <v>17066</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>27</v>
+        <v>15604</v>
+      </c>
+      <c r="J13" s="13">
+        <v>28532</v>
       </c>
       <c r="K13" s="13">
-        <v>28532</v>
+        <v>18396</v>
       </c>
       <c r="L13" s="13">
-        <v>18396</v>
+        <v>19370</v>
       </c>
       <c r="M13" s="13">
-        <v>19370</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15620</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
@@ -975,68 +975,68 @@
       <c r="E14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>27</v>
+      <c r="F14" s="11">
+        <v>-22305</v>
       </c>
       <c r="G14" s="11">
-        <v>-22305</v>
-      </c>
-      <c r="H14" s="11">
         <v>19937</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>27</v>
+      <c r="H14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-15248</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-27711</v>
       </c>
       <c r="K14" s="11">
-        <v>-27711</v>
+        <v>-17967</v>
       </c>
       <c r="L14" s="11">
-        <v>-17967</v>
+        <v>-18562</v>
       </c>
       <c r="M14" s="11">
-        <v>-18562</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-15218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
-        <v>8056</v>
+        <v>8955</v>
       </c>
       <c r="E15" s="15">
-        <v>8955</v>
+        <v>10745</v>
       </c>
       <c r="F15" s="15">
-        <v>10745</v>
+        <v>11840</v>
       </c>
       <c r="G15" s="15">
-        <v>11840</v>
+        <v>16848</v>
       </c>
       <c r="H15" s="15">
-        <v>16848</v>
+        <v>17066</v>
       </c>
       <c r="I15" s="15">
-        <v>17066</v>
+        <v>15322</v>
       </c>
       <c r="J15" s="15">
-        <v>15322</v>
+        <v>13567</v>
       </c>
       <c r="K15" s="15">
-        <v>13567</v>
+        <v>19028</v>
       </c>
       <c r="L15" s="15">
-        <v>19028</v>
+        <v>19452</v>
       </c>
       <c r="M15" s="15">
-        <v>19452</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15517</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1047,176 +1047,176 @@
       <c r="E16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>27</v>
+      <c r="F16" s="11">
+        <v>-15942</v>
       </c>
       <c r="G16" s="11">
-        <v>-15942</v>
+        <v>-10148</v>
       </c>
       <c r="H16" s="11">
-        <v>-10148</v>
+        <v>-9837</v>
       </c>
       <c r="I16" s="11">
-        <v>-9837</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>27</v>
+        <v>-9659</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-18839</v>
       </c>
       <c r="K16" s="11">
-        <v>-18839</v>
+        <v>-14595</v>
       </c>
       <c r="L16" s="11">
-        <v>-14595</v>
+        <v>-15407</v>
       </c>
       <c r="M16" s="11">
-        <v>-15407</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-13411</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
-        <v>-599</v>
+        <v>-811</v>
       </c>
       <c r="E17" s="13">
-        <v>-811</v>
+        <v>-609</v>
       </c>
       <c r="F17" s="13">
-        <v>-609</v>
+        <v>-761</v>
       </c>
       <c r="G17" s="13">
-        <v>-761</v>
+        <v>-720</v>
       </c>
       <c r="H17" s="13">
-        <v>-720</v>
+        <v>-924</v>
       </c>
       <c r="I17" s="13">
-        <v>-924</v>
+        <v>-847</v>
       </c>
       <c r="J17" s="13">
-        <v>-847</v>
+        <v>-1095</v>
       </c>
       <c r="K17" s="13">
-        <v>-1095</v>
+        <v>-877</v>
       </c>
       <c r="L17" s="13">
-        <v>-877</v>
+        <v>-1253</v>
       </c>
       <c r="M17" s="13">
-        <v>-895</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-718</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-42</v>
-      </c>
-      <c r="E18" s="11">
         <v>198</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="11">
         <v>51</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="G18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="11">
         <v>391</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="I18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="11">
         <v>44</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>27</v>
+      <c r="K18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="11">
+        <v>515</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-53</v>
+        <v>-21</v>
       </c>
       <c r="E19" s="13">
-        <v>-21</v>
+        <v>-31</v>
       </c>
       <c r="F19" s="13">
-        <v>-31</v>
+        <v>-74</v>
       </c>
       <c r="G19" s="13">
-        <v>-74</v>
+        <v>-97</v>
       </c>
       <c r="H19" s="13">
-        <v>-97</v>
+        <v>-105</v>
       </c>
       <c r="I19" s="13">
-        <v>-105</v>
+        <v>-51</v>
       </c>
       <c r="J19" s="13">
-        <v>-51</v>
+        <v>-72</v>
       </c>
       <c r="K19" s="13">
-        <v>-72</v>
+        <v>-63</v>
       </c>
       <c r="L19" s="13">
-        <v>-63</v>
+        <v>-68</v>
       </c>
       <c r="M19" s="13">
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1229</v>
+        <v>2893</v>
       </c>
       <c r="E20" s="17">
-        <v>2893</v>
+        <v>3336</v>
       </c>
       <c r="F20" s="17">
-        <v>3336</v>
+        <v>2203</v>
       </c>
       <c r="G20" s="17">
-        <v>2203</v>
+        <v>5883</v>
       </c>
       <c r="H20" s="17">
-        <v>5883</v>
+        <v>6590</v>
       </c>
       <c r="I20" s="17">
-        <v>6590</v>
+        <v>4765</v>
       </c>
       <c r="J20" s="17">
-        <v>4765</v>
+        <v>2660</v>
       </c>
       <c r="K20" s="17">
-        <v>2660</v>
+        <v>3494</v>
       </c>
       <c r="L20" s="17">
-        <v>3494</v>
+        <v>3239</v>
       </c>
       <c r="M20" s="17">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1227,68 +1227,68 @@
       <c r="E21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>27</v>
+      <c r="F21" s="13">
+        <v>366</v>
       </c>
       <c r="G21" s="13">
-        <v>366</v>
+        <v>66</v>
       </c>
       <c r="H21" s="13">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I21" s="13">
-        <v>76</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>27</v>
+        <v>144</v>
+      </c>
+      <c r="J21" s="13">
+        <v>340</v>
       </c>
       <c r="K21" s="13">
-        <v>340</v>
+        <v>104</v>
       </c>
       <c r="L21" s="13">
-        <v>104</v>
+        <v>711</v>
       </c>
       <c r="M21" s="13">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E22" s="11">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F22" s="11">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="G22" s="11">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="H22" s="11">
-        <v>49</v>
-      </c>
-      <c r="I22" s="11">
         <v>202</v>
       </c>
+      <c r="I22" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J22" s="11">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="K22" s="11">
-        <v>420</v>
+        <v>214</v>
       </c>
       <c r="L22" s="11">
-        <v>214</v>
-      </c>
-      <c r="M22" s="11">
         <v>388</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1308,8 +1308,8 @@
       <c r="H23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>27</v>
+      <c r="I23" s="13">
+        <v>457</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>27</v>
@@ -1320,35 +1320,35 @@
       <c r="L23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
-        <v>-86</v>
+        <v>-76</v>
       </c>
       <c r="E24" s="11">
-        <v>-76</v>
+        <v>-16</v>
       </c>
       <c r="F24" s="11">
-        <v>-16</v>
+        <v>-68</v>
       </c>
       <c r="G24" s="11">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="H24" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I24" s="11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="11">
         <v>0</v>
@@ -1360,151 +1360,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15">
-        <v>1177</v>
+        <v>2985</v>
       </c>
       <c r="E25" s="15">
-        <v>2985</v>
+        <v>3519</v>
       </c>
       <c r="F25" s="15">
-        <v>3519</v>
+        <v>2432</v>
       </c>
       <c r="G25" s="15">
-        <v>2432</v>
+        <v>5997</v>
       </c>
       <c r="H25" s="15">
-        <v>5997</v>
+        <v>6865</v>
       </c>
       <c r="I25" s="15">
-        <v>6865</v>
+        <v>5364</v>
       </c>
       <c r="J25" s="15">
-        <v>5364</v>
+        <v>3285</v>
       </c>
       <c r="K25" s="15">
-        <v>3285</v>
+        <v>3812</v>
       </c>
       <c r="L25" s="15">
-        <v>3812</v>
+        <v>4337</v>
       </c>
       <c r="M25" s="15">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>-11</v>
-      </c>
-      <c r="E26" s="11">
         <v>-13</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>27</v>
+      <c r="E26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="11">
+        <v>-31</v>
       </c>
       <c r="G26" s="11">
-        <v>-31</v>
+        <v>-21</v>
       </c>
       <c r="H26" s="11">
-        <v>-21</v>
-      </c>
-      <c r="I26" s="11">
         <v>1</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>27</v>
+      <c r="I26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-40</v>
       </c>
       <c r="K26" s="11">
         <v>-40</v>
       </c>
       <c r="L26" s="11">
-        <v>-40</v>
-      </c>
-      <c r="M26" s="11">
         <v>-58</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="D27" s="13">
         <v>-11</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>27</v>
+      <c r="E27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="13">
+        <v>-4</v>
       </c>
       <c r="G27" s="13">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H27" s="13">
-        <v>4</v>
-      </c>
-      <c r="I27" s="13">
         <v>-15</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>27</v>
+      <c r="I27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="13">
+        <v>-33</v>
       </c>
       <c r="K27" s="13">
-        <v>-33</v>
-      </c>
-      <c r="L27" s="13">
         <v>31</v>
       </c>
+      <c r="L27" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="M27" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17">
-        <v>1166</v>
+        <v>2962</v>
       </c>
       <c r="E28" s="17">
-        <v>2962</v>
+        <v>3519</v>
       </c>
       <c r="F28" s="17">
-        <v>3519</v>
+        <v>2396</v>
       </c>
       <c r="G28" s="17">
-        <v>2396</v>
+        <v>5980</v>
       </c>
       <c r="H28" s="17">
-        <v>5980</v>
+        <v>6851</v>
       </c>
       <c r="I28" s="17">
-        <v>6851</v>
+        <v>5364</v>
       </c>
       <c r="J28" s="17">
-        <v>5364</v>
+        <v>3213</v>
       </c>
       <c r="K28" s="17">
-        <v>3213</v>
+        <v>3803</v>
       </c>
       <c r="L28" s="17">
-        <v>3803</v>
+        <v>4280</v>
       </c>
       <c r="M28" s="17">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>45</v>
       </c>
@@ -1540,43 +1540,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17">
-        <v>1166</v>
+        <v>2962</v>
       </c>
       <c r="E30" s="17">
-        <v>2962</v>
+        <v>3519</v>
       </c>
       <c r="F30" s="17">
-        <v>3519</v>
+        <v>2396</v>
       </c>
       <c r="G30" s="17">
-        <v>2396</v>
+        <v>5980</v>
       </c>
       <c r="H30" s="17">
-        <v>5980</v>
+        <v>6851</v>
       </c>
       <c r="I30" s="17">
-        <v>6851</v>
+        <v>5364</v>
       </c>
       <c r="J30" s="17">
-        <v>5364</v>
+        <v>3213</v>
       </c>
       <c r="K30" s="17">
-        <v>3213</v>
+        <v>3803</v>
       </c>
       <c r="L30" s="17">
-        <v>3803</v>
+        <v>4280</v>
       </c>
       <c r="M30" s="17">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>47</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1698,8 +1698,8 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11">
-        <v>0</v>
+      <c r="G34" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>27</v>
@@ -1710,8 +1710,8 @@
       <c r="J34" s="11">
         <v>0</v>
       </c>
-      <c r="K34" s="11">
-        <v>0</v>
+      <c r="K34" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>27</v>
@@ -1720,7 +1720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1731,68 +1731,68 @@
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
+      <c r="F35" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
-        <v>5895</v>
+        <v>4784</v>
       </c>
       <c r="E36" s="11">
-        <v>4784</v>
-      </c>
-      <c r="F36" s="11">
         <v>5323</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="H36" s="11">
+        <v>4566</v>
+      </c>
+      <c r="I36" s="11">
         <v>4720</v>
       </c>
+      <c r="J36" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="11">
+        <v>3742</v>
+      </c>
+      <c r="M36" s="11">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
